--- a/3_Component_Results/EXPORT/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.06606273387611693</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7819567165648904</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.95711398432533</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.398968900413919</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.411041781561629</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.9177529795577564</v>
+        <v>1.090855880406542</v>
       </c>
       <c r="C3">
-        <v>1.066521820825747</v>
+        <v>1.636952682927139</v>
       </c>
       <c r="D3">
-        <v>10.57993006441788</v>
+        <v>9.587480958581839</v>
       </c>
       <c r="E3">
-        <v>3.252680443022013</v>
+        <v>3.096365766278564</v>
       </c>
       <c r="F3">
-        <v>3.15157305541048</v>
+        <v>2.926681515795593</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.118114149911775</v>
+        <v>1.146478367687022</v>
       </c>
       <c r="C4">
-        <v>2.005079073390823</v>
+        <v>2.300800508439017</v>
       </c>
       <c r="D4">
-        <v>17.90111166549979</v>
+        <v>16.92217468558993</v>
       </c>
       <c r="E4">
-        <v>4.230970534700022</v>
+        <v>4.113657093826602</v>
       </c>
       <c r="F4">
-        <v>4.121983425546055</v>
+        <v>3.990775337436762</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.9601180345616772</v>
+        <v>1.174361413305189</v>
       </c>
       <c r="C5">
-        <v>1.755677615058694</v>
+        <v>2.149695694135142</v>
       </c>
       <c r="D5">
-        <v>17.51976498152193</v>
+        <v>16.96319945630839</v>
       </c>
       <c r="E5">
-        <v>4.185661833153979</v>
+        <v>4.118640486411553</v>
       </c>
       <c r="F5">
-        <v>4.116276074723406</v>
+        <v>3.988576556960211</v>
       </c>
       <c r="G5">
         <v>49</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.850564309305886</v>
+        <v>0.7872502277514816</v>
       </c>
       <c r="C6">
-        <v>1.976920850416372</v>
+        <v>2.189782397188602</v>
       </c>
       <c r="D6">
-        <v>18.68288711464644</v>
+        <v>17.30793470436396</v>
       </c>
       <c r="E6">
-        <v>4.322370543422491</v>
+        <v>4.160280604041506</v>
       </c>
       <c r="F6">
-        <v>4.282702762097163</v>
+        <v>4.128345827086147</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.7761513797708465</v>
+        <v>0.8319901022676859</v>
       </c>
       <c r="C7">
-        <v>1.779305621997773</v>
+        <v>1.971575915675119</v>
       </c>
       <c r="D7">
-        <v>21.02267187646684</v>
+        <v>16.97606752739902</v>
       </c>
       <c r="E7">
-        <v>4.585048732180154</v>
+        <v>4.120202364860131</v>
       </c>
       <c r="F7">
-        <v>4.577951091843206</v>
+        <v>4.088078109409235</v>
       </c>
       <c r="G7">
         <v>39</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.837144603468026</v>
+        <v>0.8848395731913589</v>
       </c>
       <c r="C8">
-        <v>2.010616324331756</v>
+        <v>2.077403147304855</v>
       </c>
       <c r="D8">
-        <v>22.01861567032128</v>
+        <v>17.89474323381673</v>
       </c>
       <c r="E8">
-        <v>4.692399777333692</v>
+        <v>4.230217870726841</v>
       </c>
       <c r="F8">
-        <v>4.679098360136578</v>
+        <v>4.192169283686689</v>
       </c>
       <c r="G8">
         <v>38</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.8255885998572692</v>
+        <v>0.7851577424002278</v>
       </c>
       <c r="C9">
-        <v>2.413437768084505</v>
+        <v>2.363787703475875</v>
       </c>
       <c r="D9">
-        <v>37.30077672298867</v>
+        <v>28.62182591829283</v>
       </c>
       <c r="E9">
-        <v>6.10743618247368</v>
+        <v>5.349937001338692</v>
       </c>
       <c r="F9">
-        <v>6.200817623193985</v>
+        <v>5.422694984943732</v>
       </c>
       <c r="G9">
         <v>21</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.5805803896382832</v>
+        <v>-0.5578088075490664</v>
       </c>
       <c r="C10">
-        <v>1.567325387666585</v>
+        <v>1.742949889236707</v>
       </c>
       <c r="D10">
-        <v>10.61279851281458</v>
+        <v>10.92979066599325</v>
       </c>
       <c r="E10">
-        <v>3.257729042264655</v>
+        <v>3.306023391628264</v>
       </c>
       <c r="F10">
-        <v>3.326584630330316</v>
+        <v>3.381635471449998</v>
       </c>
       <c r="G10">
         <v>14</v>

--- a/3_Component_Results/EXPORT/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.06606273387611693</v>
+        <v>-0.0725292808699395</v>
       </c>
       <c r="C2">
-        <v>0.7819567165648904</v>
+        <v>1.452525492729129</v>
       </c>
       <c r="D2">
-        <v>1.95711398432533</v>
+        <v>3.943704826413877</v>
       </c>
       <c r="E2">
-        <v>1.398968900413919</v>
+        <v>1.985876337140326</v>
       </c>
       <c r="F2">
-        <v>1.411041781561629</v>
+        <v>2.004298684434776</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.090855880406542</v>
+        <v>0.970128790070132</v>
       </c>
       <c r="C3">
-        <v>1.636952682927139</v>
+        <v>1.91197192143461</v>
       </c>
       <c r="D3">
-        <v>9.587480958581839</v>
+        <v>11.00797031802001</v>
       </c>
       <c r="E3">
-        <v>3.096365766278564</v>
+        <v>3.317826143428858</v>
       </c>
       <c r="F3">
-        <v>2.926681515795593</v>
+        <v>3.205037560462687</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.146478367687022</v>
+        <v>1.027439519176732</v>
       </c>
       <c r="C4">
-        <v>2.300800508439017</v>
+        <v>2.670308812046868</v>
       </c>
       <c r="D4">
-        <v>16.92217468558993</v>
+        <v>20.8551199302896</v>
       </c>
       <c r="E4">
-        <v>4.113657093826602</v>
+        <v>4.566740624372004</v>
       </c>
       <c r="F4">
-        <v>3.990775337436762</v>
+        <v>4.495773270230817</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1.174361413305189</v>
+        <v>1.040770019679559</v>
       </c>
       <c r="C5">
-        <v>2.149695694135142</v>
+        <v>2.551126684817124</v>
       </c>
       <c r="D5">
-        <v>16.96319945630839</v>
+        <v>21.80091093632453</v>
       </c>
       <c r="E5">
-        <v>4.118640486411553</v>
+        <v>4.669144561514939</v>
       </c>
       <c r="F5">
-        <v>3.988576556960211</v>
+        <v>4.599838150987386</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.7872502277514816</v>
+        <v>0.6404470419866763</v>
       </c>
       <c r="C6">
-        <v>2.189782397188602</v>
+        <v>2.649364789166133</v>
       </c>
       <c r="D6">
-        <v>17.30793470436396</v>
+        <v>22.40911179286584</v>
       </c>
       <c r="E6">
-        <v>4.160280604041506</v>
+        <v>4.733826337421541</v>
       </c>
       <c r="F6">
-        <v>4.128345827086147</v>
+        <v>4.741010144670577</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.8319901022676859</v>
+        <v>0.6619285698089534</v>
       </c>
       <c r="C7">
-        <v>1.971575915675119</v>
+        <v>2.518113852960962</v>
       </c>
       <c r="D7">
-        <v>16.97606752739902</v>
+        <v>23.16329070585441</v>
       </c>
       <c r="E7">
-        <v>4.120202364860131</v>
+        <v>4.812825646733363</v>
       </c>
       <c r="F7">
-        <v>4.088078109409235</v>
+        <v>4.83108003263652</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.8848395731913589</v>
+        <v>0.6925657535171938</v>
       </c>
       <c r="C8">
-        <v>2.077403147304855</v>
+        <v>2.61980777971489</v>
       </c>
       <c r="D8">
-        <v>17.89474323381673</v>
+        <v>24.31016614921836</v>
       </c>
       <c r="E8">
-        <v>4.230217870726841</v>
+        <v>4.930534063285474</v>
       </c>
       <c r="F8">
-        <v>4.192169283686689</v>
+        <v>4.948987541160202</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.7851577424002278</v>
+        <v>0.7380237456049207</v>
       </c>
       <c r="C9">
-        <v>2.363787703475875</v>
+        <v>3.434955442878508</v>
       </c>
       <c r="D9">
-        <v>28.62182591829283</v>
+        <v>40.91359093038702</v>
       </c>
       <c r="E9">
-        <v>5.349937001338692</v>
+        <v>6.396373263841551</v>
       </c>
       <c r="F9">
-        <v>5.422694984943732</v>
+        <v>6.518710873632213</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.5578088075490664</v>
+        <v>-1.030652359722206</v>
       </c>
       <c r="C10">
-        <v>1.742949889236707</v>
+        <v>3.294535520879184</v>
       </c>
       <c r="D10">
-        <v>10.92979066599325</v>
+        <v>28.3461002497294</v>
       </c>
       <c r="E10">
-        <v>3.306023391628264</v>
+        <v>5.324105582135783</v>
       </c>
       <c r="F10">
-        <v>3.381635471449998</v>
+        <v>5.436681950116494</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3285999372853979</v>
+        <v>-0.1548825442147432</v>
       </c>
       <c r="C11">
-        <v>1.152655913208949</v>
+        <v>2.972445703758152</v>
       </c>
       <c r="D11">
-        <v>1.872684367949954</v>
+        <v>9.566860607955785</v>
       </c>
       <c r="E11">
-        <v>1.368460583264989</v>
+        <v>3.093034207369163</v>
       </c>
       <c r="F11">
-        <v>1.485221552987124</v>
+        <v>3.45377909062185</v>
       </c>
       <c r="G11">
         <v>5</v>
